--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivona\qa-rba-master\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDB4E1A-28B7-4304-BFA1-F6CAA105D1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60A3EFD-1E15-482B-B2B4-5F9EFE13891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -61,10 +61,24 @@
     <t>Dobra večer</t>
   </si>
   <si>
-    <t>Ok, samo polako jer još učim.</t>
-  </si>
-  <si>
     <t>PROMPT</t>
+  </si>
+  <si>
+    <t>Dobar dan! ☀️ Kako vam mogu pomoći?</t>
+  </si>
+  <si>
+    <t>kartice</t>
+  </si>
+  <si>
+    <t>HR523</t>
+  </si>
+  <si>
+    <t>Kod nas možete ugovoriti dvije vrsta kartica ovisno o tome što vam treba.
+Debitne kartice koje su vezane uz tekući, žiro, zaštićeni ili multivalutni tekući račun. Kada plaćate debitnim karticama, novac se odmah skida s računa.
+Kreditne kartice kod kojih ne plaćate kupnju odmah, nego kasnije.
+Koje vas kartice zanimaju?
+Debitne kartice
+Kreditne kartice</t>
   </si>
 </sst>
 </file>
@@ -391,16 +405,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -408,7 +422,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -422,10 +436,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -436,7 +450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -445,6 +459,17 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivona\qa-rba-master\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60A3EFD-1E15-482B-B2B4-5F9EFE13891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF72CDA-F307-408C-BBC1-943281E722E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -33,21 +33,7 @@
     <t>EXPECTED_RESULT</t>
   </si>
   <si>
-    <t>HR001</t>
-  </si>
-  <si>
     <t>HR002</t>
-  </si>
-  <si>
-    <t>HR003</t>
-  </si>
-  <si>
-    <t>Ispričaj mi vic</t>
-  </si>
-  <si>
-    <t>Može 🙂
-Što radi chatbot kad mu je vruće?
-Desni klik i refresh.</t>
   </si>
   <si>
     <t>kako si</t>
@@ -58,13 +44,7 @@
 Što vas zanima?</t>
   </si>
   <si>
-    <t>Dobra večer</t>
-  </si>
-  <si>
     <t>PROMPT</t>
-  </si>
-  <si>
-    <t>Dobar dan! ☀️ Kako vam mogu pomoći?</t>
   </si>
   <si>
     <t>kartice</t>
@@ -405,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,54 +402,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivona\qa-rba-master\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF72CDA-F307-408C-BBC1-943281E722E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25C1E0-DD37-438D-B6E6-FD2FCC1196DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,17 @@
 Koje vas kartice zanimaju?
 Debitne kartice
 Kreditne kartice</t>
+  </si>
+  <si>
+    <t>izvod</t>
+  </si>
+  <si>
+    <t>HR001</t>
+  </si>
+  <si>
+    <t>Za koju uslugu vas zanima izvadak?
+Za kreditnu karticu
+Tekući i drugi računi</t>
   </si>
 </sst>
 </file>
@@ -385,19 +396,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,25 +419,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivona\qa-rba-master\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25C1E0-DD37-438D-B6E6-FD2FCC1196DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49435E6-79BF-414C-84A6-583311A5B3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -70,6 +70,21 @@
     <t>Za koju uslugu vas zanima izvadak?
 Za kreditnu karticu
 Tekući i drugi računi</t>
+  </si>
+  <si>
+    <t>hr000</t>
+  </si>
+  <si>
+    <t>gedrgr</t>
+  </si>
+  <si>
+    <t>hr265</t>
+  </si>
+  <si>
+    <t>hghjhj</t>
+  </si>
+  <si>
+    <t>ispričaj mi vic</t>
   </si>
 </sst>
 </file>
@@ -396,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,6 +467,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>265</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
